--- a/Projects/CCJP_SAND/Data/setup.xlsx
+++ b/Projects/CCJP_SAND/Data/setup.xlsx
@@ -15,7 +15,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$K$5</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="44">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">CCJP_UNIQUE_DIST_OWN_MANU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FACINGS_OF_SKU_POSM_IN_CELL</t>
   </si>
 </sst>
 </file>
@@ -370,7 +373,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -381,20 +384,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="N2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="6.10526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="1" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="1" width="11.246963562753"/>
@@ -404,18 +407,18 @@
     <col collapsed="false" hidden="false" max="12" min="12" style="1" width="13.6032388663968"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="1" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="1" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="1" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="1" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="1" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="1016" min="27" style="1" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="1025" min="1017" style="2" width="9.10526315789474"/>
   </cols>
@@ -885,6 +888,7 @@
       <c r="J10" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="K10" s="0"/>
       <c r="L10" s="1" t="s">
         <v>31</v>
       </c>
@@ -897,7 +901,52 @@
       <c r="AA10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="4"/>
+      <c r="AA11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
         <v>1</v>
       </c>
     </row>
